--- a/NFL_PickEm_Database_Complete.xlsx
+++ b/NFL_PickEm_Database_Complete.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1632,11 +1632,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1673,11 +1673,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1714,11 +1714,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1755,11 +1755,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1796,11 +1796,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1837,11 +1837,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1878,11 +1878,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1919,11 +1919,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1960,11 +1960,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2001,11 +2001,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2083,11 +2083,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2124,11 +2124,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>TBD</t>
         </is>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4910,170 +4910,6 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Daniel</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Philadelphia Eagles @ Kansas City Chiefs</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Philadelphia Eagles</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kansas City Chiefs</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Philadelphia Eagles</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Haunschi</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Buffalo Bills @ New York Jets</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Buffalo Bills</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>New York Jets</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Buffalo Bills</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Manuel</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>New York Giants @ Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>New York Giants</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Raff</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>New York Giants @ Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>New York Giants</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5088,7 +4924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5159,12 +4995,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Haunschi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -5187,12 +5023,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Haunschi</t>
+          <t>Manuel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -5215,12 +5051,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Haunschi</t>
+          <t>Raff</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -5235,118 +5071,6 @@
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Manuel</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Atlanta Falcons</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1/2x</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Manuel</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1/2x</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Raff</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cincinnati Bengals</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1/2x</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Raff</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1/2x</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -5697,11 +5421,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 points</t>
+          <t>0 points</t>
         </is>
       </c>
     </row>
@@ -5717,11 +5441,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2 points</t>
+          <t>1 points</t>
         </is>
       </c>
     </row>
@@ -5737,11 +5461,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2 points</t>
+          <t>1 points</t>
         </is>
       </c>
     </row>
@@ -5757,11 +5481,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2 points</t>
+          <t>1 points</t>
         </is>
       </c>
     </row>

--- a/NFL_PickEm_Database_Complete.xlsx
+++ b/NFL_PickEm_Database_Complete.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1632,11 +1632,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1673,11 +1673,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1714,11 +1714,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1755,11 +1755,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1796,11 +1796,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1837,11 +1837,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1878,11 +1878,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1919,11 +1919,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1960,11 +1960,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2001,11 +2001,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2083,11 +2083,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2124,11 +2124,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4910,6 +4910,170 @@
         </is>
       </c>
       <c r="I5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Philadelphia Eagles @ Kansas City Chiefs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Philadelphia Eagles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kansas City Chiefs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Philadelphia Eagles</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Haunschi</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Buffalo Bills @ New York Jets</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Buffalo Bills</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>New York Jets</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Buffalo Bills</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Manuel</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>New York Giants @ Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>New York Giants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Raff</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>New York Giants @ Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>New York Giants</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4924,7 +5088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4995,12 +5159,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Haunschi</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -5023,12 +5187,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>Haunschi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -5051,12 +5215,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Raff</t>
+          <t>Haunschi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -5071,6 +5235,118 @@
         </is>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Manuel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Atlanta Falcons</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1/2x</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Manuel</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1/2x</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Raff</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cincinnati Bengals</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1/2x</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Raff</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1/2x</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
@@ -5421,11 +5697,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0 points</t>
+          <t>1 points</t>
         </is>
       </c>
     </row>
@@ -5441,11 +5717,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1 points</t>
+          <t>2 points</t>
         </is>
       </c>
     </row>
@@ -5461,11 +5737,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1 points</t>
+          <t>2 points</t>
         </is>
       </c>
     </row>
@@ -5481,11 +5757,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1 points</t>
+          <t>2 points</t>
         </is>
       </c>
     </row>
